--- a/sites/default/files/templates/SIIT_CNAPS.xlsx
+++ b/sites/default/files/templates/SIIT_CNAPS.xlsx
@@ -1036,10 +1036,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1050,7 +1050,7 @@
     <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26">
+    <row r="1" spans="1:9" ht="26">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1075,8 +1075,11 @@
       <c r="H1" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="I1" s="1">
+        <v>2016</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -1103,7 +1106,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -1130,7 +1133,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1157,7 +1160,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -1182,7 +1185,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
@@ -1207,7 +1210,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
@@ -1228,7 +1231,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="11" t="s">
         <v>17</v>
       </c>
